--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-737202.7091375005</v>
+        <v>-739737.6800133551</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>231.8127173431341</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>25.73684954641046</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +820,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>60.22224884004302</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>51.41429029582304</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>227.4409503727496</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>243.5875274224976</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>245.4535118218913</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,7 +1069,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,13 +1108,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>72.1477691397978</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>93.75139802323166</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>95.04093514013014</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>75.45713216103746</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,10 +1184,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1294,7 +1294,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>100.48599999057</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,19 +1336,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>48.96729539614774</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3286065175523</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1576,19 +1576,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>73.23997380652447</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983365919</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>237.789722109268</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>175.3193898991436</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>107.0531836110629</v>
+        <v>201.0757400165018</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576149</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>101.1785556175217</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>221.2030256723193</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>3.475606507923219</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>19.86507844888251</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>162.7401913819093</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,16 +2998,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>261.3661834507345</v>
       </c>
       <c r="V31" t="n">
-        <v>41.1667312069662</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>128.1870493703709</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545298</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652651</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3667,19 +3667,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -4138,10 +4138,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2303.170539913434</v>
+        <v>1753.263343671914</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1384.300826731502</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1026.035128124752</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>640.2468755265072</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>640.2468755265072</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4358,22 +4358,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2513.328941997115</v>
       </c>
       <c r="X2" t="n">
-        <v>2693.309871889246</v>
+        <v>2139.863183736035</v>
       </c>
       <c r="Y2" t="n">
-        <v>2303.170539913434</v>
+        <v>2139.863183736035</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4383,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>594.308586738701</v>
+        <v>478.9911633238872</v>
       </c>
       <c r="C4" t="n">
-        <v>425.3724038107941</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D4" t="n">
-        <v>275.2557643984584</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E4" t="n">
-        <v>127.3426708160653</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4507,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1593.84458011141</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610488</v>
+        <v>1364.106246401562</v>
       </c>
       <c r="V4" t="n">
-        <v>1224.739181610488</v>
+        <v>1109.421758195675</v>
       </c>
       <c r="W4" t="n">
-        <v>1224.739181610488</v>
+        <v>1109.421758195675</v>
       </c>
       <c r="X4" t="n">
-        <v>996.7496307124709</v>
+        <v>881.4322072976571</v>
       </c>
       <c r="Y4" t="n">
-        <v>775.9570515689408</v>
+        <v>660.639628154127</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765518</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C5" t="n">
-        <v>1480.516858765518</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1122.251160158767</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>736.462907560523</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>729.5174068113196</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>314.444956656316</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4577,40 +4577,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805451</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2251.634947019673</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>647.3667606649364</v>
+        <v>941.4970410294717</v>
       </c>
       <c r="C7" t="n">
-        <v>478.4305777370295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D7" t="n">
-        <v>478.4305777370295</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1224.739181610489</v>
+        <v>1351.135056757729</v>
       </c>
       <c r="V7" t="n">
-        <v>970.0546934046018</v>
+        <v>1351.135056757729</v>
       </c>
       <c r="W7" t="n">
-        <v>875.3563115629537</v>
+        <v>1351.135056757729</v>
       </c>
       <c r="X7" t="n">
-        <v>647.3667606649364</v>
+        <v>1123.145505859711</v>
       </c>
       <c r="Y7" t="n">
-        <v>647.3667606649364</v>
+        <v>1123.145505859711</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792695</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261501</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285689</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>676.468527222536</v>
+        <v>781.8689899442144</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>612.9328070163075</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>462.8161676039717</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>314.9030740215786</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>168.0131265236683</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>168.0131265236683</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1596.316292131284</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1596.316292131284</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V10" t="n">
-        <v>1596.316292131284</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W10" t="n">
-        <v>1306.899122094323</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X10" t="n">
-        <v>1078.909571196306</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y10" t="n">
-        <v>858.1169920527757</v>
+        <v>963.5174547744541</v>
       </c>
     </row>
     <row r="11">
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>680.0291294438176</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,10 +5173,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.3099000622254</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C13" t="n">
-        <v>916.3099000622254</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D13" t="n">
         <v>779.6143379232838</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>2090.842153176861</v>
+        <v>2123.082773965825</v>
       </c>
       <c r="V13" t="n">
-        <v>1836.157664970974</v>
+        <v>1868.398285759938</v>
       </c>
       <c r="W13" t="n">
-        <v>1546.740494934013</v>
+        <v>1578.981115722978</v>
       </c>
       <c r="X13" t="n">
-        <v>1318.750944035995</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y13" t="n">
-        <v>1097.958364892465</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5258,46 +5258,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>557.5558870561822</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>388.6197041282753</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5443,43 +5443,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611857</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138397</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>739.2043518864219</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>139.234765840794</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>634.5603720565526</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,49 +5674,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1103.195370459393</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.4027913158625</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5729,40 +5729,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5777,22 +5777,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>924.8344286397185</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1552.432392194325</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>424.9938751277886</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>278.1039276298782</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>278.1039276298782</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1231.938859683105</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,13 +6233,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>726.955532171245</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0193492433381</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1646.803297079993</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1357.386127043032</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>1129.396576145015</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6039970014847</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6792,7 +6792,7 @@
         <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.0191461778176</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>788.0191461778176</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>637.9025067654818</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
         <v>175.9033664000583</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2250.435511781783</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2030.834046804724</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1741.758820148922</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1487.074331943035</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1197.657161906075</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>969.6676110080573</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>969.6676110080573</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942661</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,16 +7260,16 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,10 +7354,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7409,19 +7409,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1671.859558793925</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O42" t="n">
-        <v>2223.769289033212</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,7 +7567,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7588,19 +7588,19 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,19 +7837,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>179.1090083103193</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>343.9942511320586</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,22 +22708,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>85.19879918288822</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>81.31814785715756</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,22 +22750,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.1346589803462</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.2868665006601</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>212.9445005827212</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>48.39475227997616</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.26526345295119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23899,13 +23899,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>118.6564717779743</v>
+        <v>24.63391537253537</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>39.11615722870216</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>65.31997266427166</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>145.1398665102891</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24886,16 +24886,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>24.81829093850962</v>
       </c>
       <c r="V31" t="n">
-        <v>210.9709121168618</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>52.83923663127368</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,7 +25318,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-3.552713678800501e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207271.1201254694</v>
+        <v>207271.1201254693</v>
       </c>
       <c r="C2" t="n">
         <v>246312.530959285</v>
@@ -26323,13 +26323,13 @@
         <v>242143.9799070018</v>
       </c>
       <c r="F2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="G2" t="n">
         <v>242143.9799070018</v>
       </c>
       <c r="H2" t="n">
-        <v>242143.9799070019</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="I2" t="n">
         <v>242143.9799070018</v>
@@ -26338,7 +26338,7 @@
         <v>242143.9799070018</v>
       </c>
       <c r="K2" t="n">
-        <v>242143.9799070017</v>
+        <v>242143.9799070018</v>
       </c>
       <c r="L2" t="n">
         <v>242143.9799070018</v>
@@ -26347,7 +26347,7 @@
         <v>246312.5309592848</v>
       </c>
       <c r="N2" t="n">
-        <v>246312.530959285</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="O2" t="n">
         <v>246312.530959285</v>
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104482.7459291436</v>
+        <v>104482.7459291435</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19125.28055596328</v>
+        <v>19125.28055596325</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820636</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820632</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26433,31 +26433,31 @@
         <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
+        <v>14216.75207685511</v>
+      </c>
+      <c r="I4" t="n">
         <v>14216.75207685505</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>14216.75207685507</v>
-      </c>
-      <c r="J4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="M4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994858</v>
       </c>
       <c r="N4" t="n">
-        <v>22207.61133994852</v>
+        <v>22207.61133994851</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994851</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994853</v>
       </c>
     </row>
     <row r="5">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1248532.84671948</v>
+        <v>-1248858.191809762</v>
       </c>
       <c r="C6" t="n">
-        <v>44974.80354968515</v>
+        <v>44974.80354968537</v>
       </c>
       <c r="D6" t="n">
-        <v>44974.80354968537</v>
+        <v>44974.80354968534</v>
       </c>
       <c r="E6" t="n">
-        <v>-198607.7638011156</v>
+        <v>-198642.5017265512</v>
       </c>
       <c r="F6" t="n">
-        <v>126804.6980062397</v>
+        <v>126769.960080804</v>
       </c>
       <c r="G6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="H6" t="n">
-        <v>126804.6980062395</v>
+        <v>126769.9600808039</v>
       </c>
       <c r="I6" t="n">
-        <v>126804.6980062398</v>
+        <v>126769.960080804</v>
       </c>
       <c r="J6" t="n">
-        <v>-90726.50439103783</v>
+        <v>-90761.24231647352</v>
       </c>
       <c r="K6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="L6" t="n">
-        <v>126804.6980062396</v>
+        <v>126769.960080804</v>
       </c>
       <c r="M6" t="n">
-        <v>16458.05783627732</v>
+        <v>16458.05783627734</v>
       </c>
       <c r="N6" t="n">
-        <v>120940.8037654211</v>
+        <v>120940.8037654209</v>
       </c>
       <c r="O6" t="n">
         <v>120940.8037654211</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26938,7 +26938,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27543,13 +27543,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>84.70766040187067</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27591,13 +27591,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>58.77088783286325</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>139.146314240983</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>49.15425256542918</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>214.0640690658151</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>192.7716003133593</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>259.6421064805528</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>306.4732379112243</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>44.26901492375079</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,19 +28056,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>170.5816538800215</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31838,16 +31838,16 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>242.2322097768141</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,31 +32075,31 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>181.9330708814852</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>452.8027404478645</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,22 +32795,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>301.1823051500301</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,19 +33035,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>332.1692388321076</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>577.7447198439388</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33980,19 +33980,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>491.1355220041058</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P42" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,10 +34457,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34469,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>103.6778299969399</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35811,7 +35811,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010434</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>44.09163190712619</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409634</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191314</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>310.2064960034201</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,22 +36443,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>159.0482712280117</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,19 +36683,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>189.5729943876631</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>439.1903400640646</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
         <v>418.6266618111712</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37628,19 +37628,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>349.0014880820875</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P42" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,10 +38105,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
